--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Habitat-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>-4.665610799293113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.1167961243347559</v>
+        <v>-0.1167961243347504</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-3.836607310017961</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.14928265020426</v>
+        <v>-7.039544073331956</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6380642500844471</v>
+        <v>0.2903902298091609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.643141471774481</v>
+        <v>-9.65600912226907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.732246404187531</v>
+        <v>-4.601167232418021</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.995712154954043</v>
+        <v>-7.019674930888259</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.720562419174785</v>
+        <v>-0.3773196573259878</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.00542694447549</v>
+        <v>1.105079532595978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.473644414821143</v>
+        <v>9.038100705927175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6121535531633401</v>
+        <v>0.778625830695032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.947892569972786</v>
+        <v>4.427886548215145</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6288630163565239</v>
+        <v>-0.2058774601023252</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.541171245839868</v>
+        <v>6.329596423928965</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.141758746483604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.003548704101582303</v>
+        <v>-0.003548704101582134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1504448652049138</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3555420477270788</v>
+        <v>-0.34883383627128</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03007120689557254</v>
+        <v>0.008367337777226501</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2724682221821793</v>
+        <v>-0.2736761976112873</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1306407530950135</v>
+        <v>-0.1293243534174624</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2577776259939172</v>
+        <v>-0.2547753454194779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02866157920097507</v>
+        <v>-0.01580047723607942</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06807403176889334</v>
+        <v>0.06900693243243632</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5938033050783601</v>
+        <v>0.5457953945977098</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01902661067158987</v>
+        <v>0.02323127259732233</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1636353063708968</v>
+        <v>0.1454198968399248</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02669310807782262</v>
+        <v>-0.005911373431854121</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2326385736047254</v>
+        <v>0.2713107465887129</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.086961553724089</v>
+        <v>-5.415638057512647</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.080027354988652</v>
+        <v>-5.25394241684569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.261871154656362</v>
+        <v>-8.08777811871783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.575614927471154</v>
+        <v>-2.62295418378031</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.559648009212735</v>
+        <v>-5.754482482831557</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.871482826470962</v>
+        <v>-2.83986060198944</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.263653846939141</v>
+        <v>1.246828653326213</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.596150001409795</v>
+        <v>1.819163745176316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02693174972419219</v>
+        <v>0.1890835185437809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.341503133763837</v>
+        <v>4.817502702049121</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.4690174458570049</v>
+        <v>-0.103937106905454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.023239677922222</v>
+        <v>2.315233248934193</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2726247508051376</v>
+        <v>-0.2837314305314657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2689324815891574</v>
+        <v>-0.2814408262547013</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2571736570105838</v>
+        <v>-0.2531103766048857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08396869911300099</v>
+        <v>-0.08410613107503565</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2243938169828072</v>
+        <v>-0.2292229877066277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1135607238178453</v>
+        <v>-0.1131111104445577</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.08394446671975524</v>
+        <v>0.07831201172758812</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.103092554597639</v>
+        <v>0.1180484438080625</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.001150507973454487</v>
+        <v>0.009325933211371058</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1920239292310671</v>
+        <v>0.1707723166671933</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02254697078328428</v>
+        <v>-0.003523434388904139</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09269466543021271</v>
+        <v>0.1045029595401334</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.859920952600364</v>
+        <v>-4.999616102724569</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.035898561706993</v>
+        <v>-1.692189180075057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.912187900332635</v>
+        <v>-6.978764171324634</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.90777093638663</v>
+        <v>1.570626317403029</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.718491228126997</v>
+        <v>-4.586648625789276</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.046571613140747</v>
+        <v>1.035409574540126</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.840314697213195</v>
+        <v>2.708434607485122</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.206774788748779</v>
+        <v>6.283123545452017</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.756279937074065</v>
+        <v>2.264303213049305</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.92592289925473</v>
+        <v>10.31552508408169</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.408988294721935</v>
+        <v>1.281530589751268</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.214340993872363</v>
+        <v>6.874503480241935</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2929959260578983</v>
+        <v>-0.2945290093249633</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1286617145126544</v>
+        <v>-0.1021202149785745</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2462998741103328</v>
+        <v>-0.2516486224367044</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.07534336828587276</v>
+        <v>0.0582141552312553</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2168724700042849</v>
+        <v>-0.2130842427014586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04742466049728258</v>
+        <v>0.04991206541854608</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2370630702717058</v>
+        <v>0.217793173445648</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4798045110695606</v>
+        <v>0.4959312047824509</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.125895277709645</v>
+        <v>0.09361502808588117</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.479168834575878</v>
+        <v>0.4536658806656312</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07821417879609432</v>
+        <v>0.0735275221359499</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3930013401620762</v>
+        <v>0.3616283411252149</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.69528938426119</v>
+        <v>-5.921400030428821</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.554443012683672</v>
+        <v>-3.010096168680767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.492070073160638</v>
+        <v>-6.542858499287832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.548889826803673</v>
+        <v>0.8482713531206405</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.084561621955475</v>
+        <v>-4.958667909377805</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6039683599265478</v>
+        <v>0.4364890164112834</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.124125675281773</v>
+        <v>1.428149932024908</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.363250440540089</v>
+        <v>4.530907889819241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.692427367598803</v>
+        <v>1.552219208690627</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.000285621153635</v>
+        <v>8.722983642853462</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2832739970850983</v>
+        <v>0.4861538982349057</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.551360745438608</v>
+        <v>5.759215761604565</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2923306749993597</v>
+        <v>-0.2968207340003036</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1357171972781978</v>
+        <v>-0.1561942775560203</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2112825183697574</v>
+        <v>-0.215926418332153</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05448836507604926</v>
+        <v>0.02882241600351671</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2021556300714967</v>
+        <v>-0.1994677448994681</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02423644692353056</v>
+        <v>0.01706041528525412</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07343752654271642</v>
+        <v>0.09134906913748203</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.269712207452618</v>
+        <v>0.2882272086912206</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.06467058973283367</v>
+        <v>0.05701402232159972</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3465679804847288</v>
+        <v>0.3385966922815791</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0142571642291575</v>
+        <v>0.02257866239744326</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2541124142584593</v>
+        <v>0.2585036881922419</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>-3.417330452941669</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.175362872489496</v>
+        <v>3.175362872489501</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-2.745461391103335</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.037205436121325</v>
+        <v>-3.851047729552354</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6830567459041289</v>
+        <v>-0.7247661528468317</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.739501776746402</v>
+        <v>-5.542059056125497</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.187866246635594</v>
+        <v>1.187307934350173</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.160528021868409</v>
+        <v>-4.306655618401003</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7819849013892762</v>
+        <v>0.8063362678368473</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.4078599662975332</v>
+        <v>-0.2914742393240881</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.992382545703093</v>
+        <v>2.984778484677229</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.188533152133661</v>
+        <v>-0.9542231067134992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.279532076945959</v>
+        <v>5.361963300473739</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.216781442081004</v>
+        <v>-1.312444850174029</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.760421080639334</v>
+        <v>3.570067405425533</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>-0.1170788145126591</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.1087889292177059</v>
+        <v>0.1087889292177061</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1182895525800886</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2232240617683733</v>
+        <v>-0.2130679541070137</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0385888491269963</v>
+        <v>-0.04193669399044404</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.187057428099684</v>
+        <v>-0.1880133001712622</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03949171103000221</v>
+        <v>0.03742080098474909</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1730968314273885</v>
+        <v>-0.1800180198919326</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03285941080299568</v>
+        <v>0.03217930005529236</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.02505562592932453</v>
+        <v>-0.0175318469009665</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1871930385371955</v>
+        <v>0.1874793821184383</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.03986398062342848</v>
+        <v>-0.03532188119944671</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1887300825145894</v>
+        <v>0.1871030911894048</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05477559534506843</v>
+        <v>-0.05866262200705814</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1685239162817869</v>
+        <v>0.1593873247831164</v>
       </c>
     </row>
     <row r="34">
